--- a/DateBase/orders/Nha Thu_2025-11-27.xlsx
+++ b/DateBase/orders/Nha Thu_2025-11-27.xlsx
@@ -525,6 +525,9 @@
         <v xml:space="preserve">542_吊米 红_hanging amaranthus
 red_undefined_1bunch</v>
       </c>
+      <c r="F11" t="str">
+        <v>10</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>
@@ -586,7 +589,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>019122020214100100</v>
+        <v>0191220202141001010</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Nha Thu_2025-11-27.xlsx
+++ b/DateBase/orders/Nha Thu_2025-11-27.xlsx
@@ -398,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L11"/>
+  <dimension ref="A1:L26"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -529,9 +529,140 @@
         <v>10</v>
       </c>
     </row>
+    <row r="12">
+      <c r="C12" t="str">
+        <v>521_商陆_phytolacca acinosa _undefined_1bunch</v>
+      </c>
+      <c r="F12" t="str">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="C13" t="str">
+        <v>427_新娘_Blushing Bride_undefined_1bunch</v>
+      </c>
+      <c r="F13" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="C14" t="str">
+        <v>3_波浪白洋桔梗_Wavy White Lisianthus_Eustoma grandiflorum (Raf.) Shinners_800/600g</v>
+      </c>
+      <c r="F14" t="str">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="C15" t="str">
+        <v>411_紫罗兰白_violet white_undefined_1bunch</v>
+      </c>
+      <c r="F15" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" xml:space="preserve">
+      <c r="C16" t="str" xml:space="preserve">
+        <v xml:space="preserve">416_翠珠紫_Didiscus caeruleus
+blue_Trachymene Coerulea_1bunch</v>
+      </c>
+      <c r="F16" t="str">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" xml:space="preserve">
+      <c r="C17" t="str" xml:space="preserve">
+        <v xml:space="preserve">510_翠珠白_Didiscus caeruleus 
+white_Trachymene Coerulea_1bunch</v>
+      </c>
+      <c r="F17" t="str">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="str">
+        <v>4</v>
+      </c>
+      <c r="C18" t="str">
+        <v>49_亚丁_Pasta Rosata_Gerbera L._10stems</v>
+      </c>
+      <c r="F18" t="str">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="C19" t="str">
+        <v>14_波浪浅紫洋桔梗_Wavy Light Purple Lisianthus_Eustoma grandiflorum (Raf.) Shinners_800/600g</v>
+      </c>
+      <c r="F19" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="C20" t="str">
+        <v>43_拉丝红_Spider Red_Gerbera L._20stems</v>
+      </c>
+      <c r="F20" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="C21" t="str">
+        <v>840_洋牡丹塞纳河_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F21" t="str">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="C22" t="str">
+        <v>505_紫罗兰紫_violet purple_undefined_1bunch</v>
+      </c>
+      <c r="F22" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="C23" t="str">
+        <v>412_紫罗兰粉_violet pink_undefined_1bunch</v>
+      </c>
+      <c r="F23" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="str">
+        <v>5</v>
+      </c>
+      <c r="C24" t="str">
+        <v>797_维也纳大菊_undefined_undefined_5stems</v>
+      </c>
+      <c r="F24" t="str">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="str">
+        <v>6</v>
+      </c>
+      <c r="C25" t="str">
+        <v>798_朱玉大菊_undefined_undefined_5stems</v>
+      </c>
+      <c r="F25" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="C26" t="str">
+        <v>797_维也纳大菊_undefined_undefined_5stems</v>
+      </c>
+      <c r="F26" t="str">
+        <v>8</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:L11"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:L26"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -589,7 +720,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>0191220202141001010</v>
+        <v>019122020214100101015530101530201058101032108</v>
       </c>
     </row>
   </sheetData>
